--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -1,48 +1,385 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView windowWidth="21000" windowHeight="11295"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestExel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Accreditation_20230417125419</t>
+  </si>
+  <si>
+    <t>Shipment_20230417125505</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,24 +387,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,7 +774,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,23 +948,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="30.7142857142857" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
   <si>
     <t>Shipment_20230417125505</t>
+  </si>
+  <si>
+    <t>Shipment_20230417171748</t>
+  </si>
+  <si>
+    <t>Shipment_20230417171853</t>
   </si>
 </sst>
 </file>
@@ -962,7 +968,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7142857142857" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="30.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:1">
@@ -972,7 +978,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Shipment_20230417171853</t>
+  </si>
+  <si>
+    <t>Part_20230418073150</t>
   </si>
 </sst>
 </file>
@@ -960,7 +963,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:A9"/>
+  <dimension ref="A4:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
@@ -971,6 +974,11 @@
     <col min="1" max="1" customWidth="true" width="30.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>0</v>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -29,6 +29,27 @@
   </si>
   <si>
     <t>Part_20230418073150</t>
+  </si>
+  <si>
+    <t>Part_20230421130214</t>
+  </si>
+  <si>
+    <t>Shipment_20230421132057</t>
+  </si>
+  <si>
+    <t>Shipment_20230421132816</t>
+  </si>
+  <si>
+    <t>Shipment_20230421132907</t>
+  </si>
+  <si>
+    <t>Shipment_20230421132954</t>
+  </si>
+  <si>
+    <t>Shipment_20230421133237</t>
+  </si>
+  <si>
+    <t>Shipment_20230421133340</t>
   </si>
 </sst>
 </file>
@@ -976,7 +997,7 @@
   <sheetData>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -986,7 +1007,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -50,6 +50,57 @@
   </si>
   <si>
     <t>Shipment_20230421133340</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421134627</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421134959</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421144052</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421144339</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421144804</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421145059</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421145432</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421145519</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421145638</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421145943</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421150240</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421150401</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421150543</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421150711</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421151027</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421151459</t>
+  </si>
+  <si>
+    <t>Accreditation_20230421153517</t>
   </si>
 </sst>
 </file>
@@ -1000,9 +1051,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Accreditation_20230421153517</t>
+  </si>
+  <si>
+    <t>Part_20230421155933</t>
+  </si>
+  <si>
+    <t>Part_20230421160016</t>
+  </si>
+  <si>
+    <t>Part_20230421164029</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1057,7 @@
   <sheetData>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>Part_20230421164029</t>
+  </si>
+  <si>
+    <t>Contact_20230422134823</t>
+  </si>
+  <si>
+    <t>Contact_20230422140107</t>
+  </si>
+  <si>
+    <t>Contact_20230422140529</t>
+  </si>
+  <si>
+    <t>Contact_20230422143100</t>
+  </si>
+  <si>
+    <t>Contact_20230422143214</t>
   </si>
 </sst>
 </file>
@@ -1065,6 +1080,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="9">
       <c r="A9" t="s">
         <v>11</v>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>Contact_20230422143214</t>
+  </si>
+  <si>
+    <t>Procedure_20230422152130</t>
+  </si>
+  <si>
+    <t>Procedure_20230422152316</t>
+  </si>
+  <si>
+    <t>Procedure_20230422152845</t>
+  </si>
+  <si>
+    <t>Type_20230422153248</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1071,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:A9"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
@@ -1070,6 +1082,16 @@
     <col min="1" max="1" customWidth="true" width="30.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" t="s">
         <v>31</v>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Type_20230422153248</t>
+  </si>
+  <si>
+    <t>Type_20230422172311</t>
+  </si>
+  <si>
+    <t>Type_20230422172645</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1095,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -143,6 +143,42 @@
   </si>
   <si>
     <t>Type_20230422172645</t>
+  </si>
+  <si>
+    <t>Procedure_20230424120523</t>
+  </si>
+  <si>
+    <t>Procedure_20230424125448</t>
+  </si>
+  <si>
+    <t>Procedure_20230424130146</t>
+  </si>
+  <si>
+    <t>Procedure_20230424130428</t>
+  </si>
+  <si>
+    <t>Procedure_20230424130629</t>
+  </si>
+  <si>
+    <t>Procedure_20230424130732</t>
+  </si>
+  <si>
+    <t>Procedure_20230424130929</t>
+  </si>
+  <si>
+    <t>Procedure_20230424131427</t>
+  </si>
+  <si>
+    <t>Procedure_20230424131808</t>
+  </si>
+  <si>
+    <t>Procedure_20230424152309</t>
+  </si>
+  <si>
+    <t>Procedure_20230424152724</t>
+  </si>
+  <si>
+    <t>Type_20230424161809</t>
   </si>
 </sst>
 </file>
@@ -1090,12 +1126,12 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Type_20230424161809</t>
+  </si>
+  <si>
+    <t>Type_20230425064815</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1134,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -182,6 +182,93 @@
   </si>
   <si>
     <t>Type_20230425064815</t>
+  </si>
+  <si>
+    <t>Type_20230425093010</t>
+  </si>
+  <si>
+    <t>Asset_20230425125617</t>
+  </si>
+  <si>
+    <t>Asset_20230425125830</t>
+  </si>
+  <si>
+    <t>Asset_20230425130252</t>
+  </si>
+  <si>
+    <t>Asset_20230425130834</t>
+  </si>
+  <si>
+    <t>Asset_20230425131243</t>
+  </si>
+  <si>
+    <t>Asset_20230425131429</t>
+  </si>
+  <si>
+    <t>Asset_20230425131649</t>
+  </si>
+  <si>
+    <t>Asset_20230425131816</t>
+  </si>
+  <si>
+    <t>Asset_20230425132941</t>
+  </si>
+  <si>
+    <t>Asset_20230425133118</t>
+  </si>
+  <si>
+    <t>Asset_20230425133345</t>
+  </si>
+  <si>
+    <t>Asset_20230425133617</t>
+  </si>
+  <si>
+    <t>Asset_20230425133835</t>
+  </si>
+  <si>
+    <t>Asset_20230425133940</t>
+  </si>
+  <si>
+    <t>Asset_20230425134753</t>
+  </si>
+  <si>
+    <t>Asset_20230425134852</t>
+  </si>
+  <si>
+    <t>Asset_20230425160947</t>
+  </si>
+  <si>
+    <t>Asset_20230425161255</t>
+  </si>
+  <si>
+    <t>Asset_20230425161413</t>
+  </si>
+  <si>
+    <t>Asset_20230425161637</t>
+  </si>
+  <si>
+    <t>Asset_20230425161951</t>
+  </si>
+  <si>
+    <t>Asset_20230425162156</t>
+  </si>
+  <si>
+    <t>Asset_20230425162405</t>
+  </si>
+  <si>
+    <t>Asset_20230425162645</t>
+  </si>
+  <si>
+    <t>Asset_20230425162805</t>
+  </si>
+  <si>
+    <t>Asset_20230425162841</t>
+  </si>
+  <si>
+    <t>Asset_20230425162958</t>
+  </si>
+  <si>
+    <t>Asset_20230425163201</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1203,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:A9"/>
+  <dimension ref="A2:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
@@ -1134,7 +1221,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -1157,6 +1244,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -269,6 +269,282 @@
   </si>
   <si>
     <t>Asset_20230425163201</t>
+  </si>
+  <si>
+    <t>Asset_20230426061745</t>
+  </si>
+  <si>
+    <t>Asset_20230426061933</t>
+  </si>
+  <si>
+    <t>Asset_20230426062122</t>
+  </si>
+  <si>
+    <t>Asset_20230426062243</t>
+  </si>
+  <si>
+    <t>Asset_20230426062503</t>
+  </si>
+  <si>
+    <t>Asset_20230426062723</t>
+  </si>
+  <si>
+    <t>Asset_20230426062858</t>
+  </si>
+  <si>
+    <t>Asset_20230426063138</t>
+  </si>
+  <si>
+    <t>Asset_20230426063441</t>
+  </si>
+  <si>
+    <t>Asset_20230426063627</t>
+  </si>
+  <si>
+    <t>Asset_20230426063748</t>
+  </si>
+  <si>
+    <t>Asset_20230426063909</t>
+  </si>
+  <si>
+    <t>Asset_20230426064215</t>
+  </si>
+  <si>
+    <t>Asset_20230426064319</t>
+  </si>
+  <si>
+    <t>Asset_20230426064618</t>
+  </si>
+  <si>
+    <t>Asset_20230426064919</t>
+  </si>
+  <si>
+    <t>Asset_20230426065206</t>
+  </si>
+  <si>
+    <t>Asset_20230426065512</t>
+  </si>
+  <si>
+    <t>Asset_20230426065703</t>
+  </si>
+  <si>
+    <t>Asset_20230426065925</t>
+  </si>
+  <si>
+    <t>Asset_20230426070137</t>
+  </si>
+  <si>
+    <t>Asset_20230426070346</t>
+  </si>
+  <si>
+    <t>Asset_20230426070438</t>
+  </si>
+  <si>
+    <t>Asset_20230426070642</t>
+  </si>
+  <si>
+    <t>Asset_20230426071003</t>
+  </si>
+  <si>
+    <t>Asset_20230426071125</t>
+  </si>
+  <si>
+    <t>Asset_20230426072804</t>
+  </si>
+  <si>
+    <t>Asset_20230426073541</t>
+  </si>
+  <si>
+    <t>Asset_20230426073729</t>
+  </si>
+  <si>
+    <t>Asset_20230426073929</t>
+  </si>
+  <si>
+    <t>Asset_20230426074706</t>
+  </si>
+  <si>
+    <t>Asset_20230426080856</t>
+  </si>
+  <si>
+    <t>Asset_20230426081013</t>
+  </si>
+  <si>
+    <t>Asset_20230426081347</t>
+  </si>
+  <si>
+    <t>Asset_20230426081740</t>
+  </si>
+  <si>
+    <t>Asset_20230426094427</t>
+  </si>
+  <si>
+    <t>Asset_20230426094622</t>
+  </si>
+  <si>
+    <t>Asset_20230426111937</t>
+  </si>
+  <si>
+    <t>Asset_20230426112259</t>
+  </si>
+  <si>
+    <t>Asset_20230426112514</t>
+  </si>
+  <si>
+    <t>Asset_20230426112756</t>
+  </si>
+  <si>
+    <t>Asset_20230426112853</t>
+  </si>
+  <si>
+    <t>Asset_20230426113122</t>
+  </si>
+  <si>
+    <t>Asset_20230426113525</t>
+  </si>
+  <si>
+    <t>Asset_20230426113659</t>
+  </si>
+  <si>
+    <t>Asset_20230426113826</t>
+  </si>
+  <si>
+    <t>Asset_20230426113931</t>
+  </si>
+  <si>
+    <t>Asset_20230426114225</t>
+  </si>
+  <si>
+    <t>Asset_20230426114322</t>
+  </si>
+  <si>
+    <t>Asset_20230426122412</t>
+  </si>
+  <si>
+    <t>Asset_20230426122526</t>
+  </si>
+  <si>
+    <t>Asset_20230426122714</t>
+  </si>
+  <si>
+    <t>Asset_20230426122819</t>
+  </si>
+  <si>
+    <t>Asset_20230426122948</t>
+  </si>
+  <si>
+    <t>Asset_20230426123337</t>
+  </si>
+  <si>
+    <t>Asset_20230426123554</t>
+  </si>
+  <si>
+    <t>Asset_20230426123822</t>
+  </si>
+  <si>
+    <t>Asset_20230426124124</t>
+  </si>
+  <si>
+    <t>Asset_20230426124432</t>
+  </si>
+  <si>
+    <t>Asset_20230426125015</t>
+  </si>
+  <si>
+    <t>Asset_20230426125210</t>
+  </si>
+  <si>
+    <t>Asset_20230426125347</t>
+  </si>
+  <si>
+    <t>Asset_20230426125622</t>
+  </si>
+  <si>
+    <t>Asset_20230426130104</t>
+  </si>
+  <si>
+    <t>Asset_20230426130157</t>
+  </si>
+  <si>
+    <t>Asset_20230426130620</t>
+  </si>
+  <si>
+    <t>Asset_20230426130739</t>
+  </si>
+  <si>
+    <t>Asset_20230426130838</t>
+  </si>
+  <si>
+    <t>Asset_20230426131111</t>
+  </si>
+  <si>
+    <t>Asset_20230426131250</t>
+  </si>
+  <si>
+    <t>Asset_20230426133300</t>
+  </si>
+  <si>
+    <t>Asset_20230426133536</t>
+  </si>
+  <si>
+    <t>Asset_20230426133638</t>
+  </si>
+  <si>
+    <t>Asset_20230426134004</t>
+  </si>
+  <si>
+    <t>Asset_20230426134237</t>
+  </si>
+  <si>
+    <t>Asset_20230426134731</t>
+  </si>
+  <si>
+    <t>Asset_20230426135318</t>
+  </si>
+  <si>
+    <t>Asset_20230426135521</t>
+  </si>
+  <si>
+    <t>Asset_20230426135809</t>
+  </si>
+  <si>
+    <t>Asset_20230426135951</t>
+  </si>
+  <si>
+    <t>Asset_20230426140217</t>
+  </si>
+  <si>
+    <t>Asset_20230426140409</t>
+  </si>
+  <si>
+    <t>Asset_20230426140609</t>
+  </si>
+  <si>
+    <t>Asset_20230426140831</t>
+  </si>
+  <si>
+    <t>Asset_20230426140949</t>
+  </si>
+  <si>
+    <t>Asset_20230426141218</t>
+  </si>
+  <si>
+    <t>Asset_20230426141410</t>
+  </si>
+  <si>
+    <t>Asset_20230426141843</t>
+  </si>
+  <si>
+    <t>Asset_20230426142051</t>
+  </si>
+  <si>
+    <t>Asset_20230426142205</t>
+  </si>
+  <si>
+    <t>Asset_20230426142438</t>
+  </si>
+  <si>
+    <t>Asset_20230426142555</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1522,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -545,6 +545,24 @@
   </si>
   <si>
     <t>Asset_20230426142555</t>
+  </si>
+  <si>
+    <t>Asset_20230426164054</t>
+  </si>
+  <si>
+    <t>Asset_20230426172356</t>
+  </si>
+  <si>
+    <t>Asset_20230426210825</t>
+  </si>
+  <si>
+    <t>Asset_20230426211053</t>
+  </si>
+  <si>
+    <t>Asset_20230426211353</t>
+  </si>
+  <si>
+    <t>Asset_20230426211457</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1540,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Accreditation_20230417125419</t>
   </si>
@@ -563,6 +563,63 @@
   </si>
   <si>
     <t>Asset_20230426211457</t>
+  </si>
+  <si>
+    <t>Asset_20230427093331</t>
+  </si>
+  <si>
+    <t>Asset_20230427093616</t>
+  </si>
+  <si>
+    <t>Asset_20230427094058</t>
+  </si>
+  <si>
+    <t>Asset_20230427094234</t>
+  </si>
+  <si>
+    <t>Asset_20230427095009</t>
+  </si>
+  <si>
+    <t>Asset_20230427095121</t>
+  </si>
+  <si>
+    <t>Asset_20230427095653</t>
+  </si>
+  <si>
+    <t>Asset_20230427095825</t>
+  </si>
+  <si>
+    <t>Asset_20230427100307</t>
+  </si>
+  <si>
+    <t>Asset_20230427100847</t>
+  </si>
+  <si>
+    <t>Asset_20230427101216</t>
+  </si>
+  <si>
+    <t>Asset_20230427101418</t>
+  </si>
+  <si>
+    <t>Asset_20230427101624</t>
+  </si>
+  <si>
+    <t>Asset_20230427101800</t>
+  </si>
+  <si>
+    <t>Asset_20230427102023</t>
+  </si>
+  <si>
+    <t>Asset_20230427102310</t>
+  </si>
+  <si>
+    <t>Asset_20230427103006</t>
+  </si>
+  <si>
+    <t>Part_20230427103246</t>
+  </si>
+  <si>
+    <t>Part_20230427103403</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1577,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
@@ -1540,7 +1597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Procedure</t>
   </si>
@@ -110,6 +110,114 @@
   </si>
   <si>
     <t>Billing</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428124024</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428161219</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428161711</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428162118</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428162317</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428163205</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428163526</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428163639</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428163803</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428164254</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428164506</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428165810</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428165908</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428170056</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428170147</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428170312</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428170444</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428170527</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428172529</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428172629</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428172806</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428172929</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428173005</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428173146</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428173332</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428173411</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428173515</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428173806</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428174053</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428174142</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428174454</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428174741</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428174849</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428175002</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428175210</t>
+  </si>
+  <si>
+    <t>Accreditation_20230428175332</t>
   </si>
 </sst>
 </file>
@@ -118,9 +226,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1052,7 +1160,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="30.7142857142857" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="30.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -1141,9 +1249,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>20</v>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:1">

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Procedure</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Facility - Customer 1</t>
   </si>
   <si>
+    <t>Accreditation_20230501080329</t>
+  </si>
+  <si>
     <t>Facility - Customer 2</t>
   </si>
   <si>
@@ -112,112 +115,10 @@
     <t>Billing</t>
   </si>
   <si>
-    <t>Accreditation_20230428124024</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428161219</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428161711</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428162118</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428162317</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428163205</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428163526</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428163639</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428163803</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428164254</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428164506</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428165810</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428165908</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428170056</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428170147</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428170312</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428170444</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428170527</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428172529</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428172629</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428172806</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428172929</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428173005</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428173146</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428173332</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428173411</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428173515</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428173806</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428174053</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428174142</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428174454</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428174741</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428174849</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428175002</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428175210</t>
-  </si>
-  <si>
-    <t>Accreditation_20230428175332</t>
+    <t>Facility_Cust120230501080549</t>
+  </si>
+  <si>
+    <t>Facility_Cust1_20230501080655</t>
   </si>
 </sst>
 </file>
@@ -239,6 +140,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -247,6 +170,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -254,34 +208,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,21 +231,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -322,55 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,13 +293,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,169 +461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,16 +488,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +513,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,16 +553,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,17 +578,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -686,148 +587,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,7 +1056,7 @@
   <dimension ref="A2:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1251,62 +1152,62 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Procedure</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Accreditation</t>
   </si>
   <si>
-    <t>Accreditation_20230427135417</t>
+    <t>Accreditation_20230501105733</t>
   </si>
   <si>
     <t>Group</t>
@@ -76,34 +76,31 @@
     <t>Tool Assignment</t>
   </si>
   <si>
-    <t>Facility - Customer 1</t>
-  </si>
-  <si>
-    <t>Accreditation_20230501080329</t>
-  </si>
-  <si>
-    <t>Facility - Customer 2</t>
-  </si>
-  <si>
-    <t>Facility - Customer 3</t>
-  </si>
-  <si>
-    <t>Facility - Manufacturer</t>
-  </si>
-  <si>
-    <t>Facility - Sub Contractor</t>
-  </si>
-  <si>
-    <t>Facility - Lab 1</t>
-  </si>
-  <si>
-    <t>Facility - Lab 2</t>
-  </si>
-  <si>
-    <t>Facility - Lab 3</t>
-  </si>
-  <si>
-    <t>Jod Number</t>
+    <t>Facility_Cust1_20230501080655</t>
+  </si>
+  <si>
+    <t>Facility_Cust2_20230501104634</t>
+  </si>
+  <si>
+    <t>Facility_Cust3_20230501104637</t>
+  </si>
+  <si>
+    <t>Facility_Manufacturer_20230501104639</t>
+  </si>
+  <si>
+    <t>Facility_Subcontractor_20230501104642</t>
+  </si>
+  <si>
+    <t>Facility_Lab1_20230501104644</t>
+  </si>
+  <si>
+    <t>Facility_Lab2_20230501104647</t>
+  </si>
+  <si>
+    <t>Facility_Lab3_20230501104650</t>
+  </si>
+  <si>
+    <t>Job Number</t>
   </si>
   <si>
     <t>Manual Template</t>
@@ -113,12 +110,6 @@
   </si>
   <si>
     <t>Billing</t>
-  </si>
-  <si>
-    <t>Facility_Cust120230501080549</t>
-  </si>
-  <si>
-    <t>Facility_Cust1_20230501080655</t>
   </si>
 </sst>
 </file>
@@ -126,8 +117,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -147,6 +138,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -164,22 +179,52 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,22 +232,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,15 +246,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,45 +262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,55 +284,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,121 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,17 +510,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -552,6 +532,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -569,166 +567,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,12 +1047,13 @@
   <dimension ref="A2:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="30.7142857142857" collapsed="true"/>
+    <col min="1" max="1" width="30.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="39.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -1150,64 +1142,64 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Procedure</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Billing</t>
+  </si>
+  <si>
+    <t>Type_20230503142402</t>
+  </si>
+  <si>
+    <t>Procedure_20230503142450</t>
   </si>
 </sst>
 </file>
@@ -117,8 +123,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1052,24 +1058,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="39.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2">
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Procedure</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Procedure_20230503142450</t>
+  </si>
+  <si>
+    <t>Template_20230601070300</t>
   </si>
 </sst>
 </file>
@@ -1187,9 +1190,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>29</v>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:1">

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11295"/>
+    <workbookView windowWidth="21000" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="TestExel" sheetId="1" r:id="rId1"/>
@@ -14,32 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Procedure</t>
   </si>
   <si>
-    <t>Procedure_20230427140215</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Type_20230427140016</t>
-  </si>
-  <si>
     <t>Part</t>
   </si>
   <si>
-    <t>Part_20230427140311</t>
-  </si>
-  <si>
     <t>Accreditation</t>
   </si>
   <si>
-    <t>Accreditation_20230501105733</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -49,15 +37,9 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Contact_20230427140457</t>
-  </si>
-  <si>
     <t>Shipment</t>
   </si>
   <si>
-    <t>Shipment_20230427140111</t>
-  </si>
-  <si>
     <t>Quote</t>
   </si>
   <si>
@@ -67,37 +49,34 @@
     <t>Asset</t>
   </si>
   <si>
-    <t>Asset_20230427140725</t>
-  </si>
-  <si>
     <t>Work Order</t>
   </si>
   <si>
     <t>Tool Assignment</t>
   </si>
   <si>
-    <t>Facility_Cust1_20230501080655</t>
-  </si>
-  <si>
-    <t>Facility_Cust2_20230501104634</t>
-  </si>
-  <si>
-    <t>Facility_Cust3_20230501104637</t>
-  </si>
-  <si>
-    <t>Facility_Manufacturer_20230501104639</t>
-  </si>
-  <si>
-    <t>Facility_Subcontractor_20230501104642</t>
-  </si>
-  <si>
-    <t>Facility_Lab1_20230501104644</t>
-  </si>
-  <si>
-    <t>Facility_Lab2_20230501104647</t>
-  </si>
-  <si>
-    <t>Facility_Lab3_20230501104650</t>
+    <t>Facility Customer1</t>
+  </si>
+  <si>
+    <t>Facility Customer2</t>
+  </si>
+  <si>
+    <t>Facility Customer3</t>
+  </si>
+  <si>
+    <t>Facility Manufacturer</t>
+  </si>
+  <si>
+    <t>Facility Subcontractor</t>
+  </si>
+  <si>
+    <t>Facility Lab1</t>
+  </si>
+  <si>
+    <t>Facility Lab2</t>
+  </si>
+  <si>
+    <t>Facility Lab3</t>
   </si>
   <si>
     <t>Job Number</t>
@@ -106,19 +85,70 @@
     <t>Manual Template</t>
   </si>
   <si>
+    <t>Template_20230601103225</t>
+  </si>
+  <si>
     <t>Problem Report</t>
   </si>
   <si>
     <t>Billing</t>
   </si>
   <si>
-    <t>Type_20230503142402</t>
-  </si>
-  <si>
-    <t>Procedure_20230503142450</t>
-  </si>
-  <si>
-    <t>Template_20230601070300</t>
+    <t>Accreditation_20230601103941</t>
+  </si>
+  <si>
+    <t>Type_20230601104216</t>
+  </si>
+  <si>
+    <t>Procedure_20230601104716</t>
+  </si>
+  <si>
+    <t>Contact_20230601104932</t>
+  </si>
+  <si>
+    <t>Part_20230601105631</t>
+  </si>
+  <si>
+    <t>Shipment_20230601105910</t>
+  </si>
+  <si>
+    <t>Shipment_20230601110006</t>
+  </si>
+  <si>
+    <t>Facility_Cust1_20230601110619</t>
+  </si>
+  <si>
+    <t>Asset_20230601110822</t>
+  </si>
+  <si>
+    <t>Asset_20230601110920</t>
+  </si>
+  <si>
+    <t>Facility_Cust2_20230601111923</t>
+  </si>
+  <si>
+    <t>Facility_Cust3_20230601111927</t>
+  </si>
+  <si>
+    <t>Facility_Manufacturer_20230601111929</t>
+  </si>
+  <si>
+    <t>Facility_Subcontractor_20230601111932</t>
+  </si>
+  <si>
+    <t>Facility_Lab1_20230601111936</t>
+  </si>
+  <si>
+    <t>Facility_Lab2_20230601111938</t>
+  </si>
+  <si>
+    <t>Facility_Lab3_20230601111941</t>
+  </si>
+  <si>
+    <t>Asset_20230601112722</t>
+  </si>
+  <si>
+    <t>Procedure_20230601112832</t>
   </si>
 </sst>
 </file>
@@ -128,8 +158,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -140,6 +170,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -147,32 +200,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,61 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,7 +300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,14 +308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,187 +323,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,21 +514,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,9 +558,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,8 +585,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,26 +608,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,130 +635,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,153 +1086,187 @@
   <dimension ref="A2:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="30.7142857142857" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="39.4285714285714" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.8571428571429" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Procedure</t>
   </si>
@@ -149,6 +149,54 @@
   </si>
   <si>
     <t>Procedure_20230601112832</t>
+  </si>
+  <si>
+    <t>Group_20230601114410</t>
+  </si>
+  <si>
+    <t>Group_20230601124315</t>
+  </si>
+  <si>
+    <t>Group_20230601124513</t>
+  </si>
+  <si>
+    <t>Shipment_20230601124649</t>
+  </si>
+  <si>
+    <t>Shipment_20230601124735</t>
+  </si>
+  <si>
+    <t>Shipment_20230601125742</t>
+  </si>
+  <si>
+    <t>Shipment_20230601125916</t>
+  </si>
+  <si>
+    <t>Asset_20230601130043</t>
+  </si>
+  <si>
+    <t>Asset_20230601130402</t>
+  </si>
+  <si>
+    <t>Asset_20230601131143</t>
+  </si>
+  <si>
+    <t>Asset_20230601131608</t>
+  </si>
+  <si>
+    <t>Asset_20230601131927</t>
+  </si>
+  <si>
+    <t>Asset_20230601132044</t>
+  </si>
+  <si>
+    <t>Asset_20230601132303</t>
+  </si>
+  <si>
+    <t>Asset_20230601132534</t>
+  </si>
+  <si>
+    <t>Asset_20230601132802</t>
   </si>
 </sst>
 </file>
@@ -1132,6 +1180,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
@@ -1151,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1169,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1">

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Procedure</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Asset_20230601132802</t>
+  </si>
+  <si>
+    <t>Shipment_20230606075500</t>
+  </si>
+  <si>
+    <t>Type_20230606080417</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1202,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1">

--- a/src/test/resources/Data/TestWorksheet.xlsx
+++ b/src/test/resources/Data/TestWorksheet.xlsx
@@ -14,32 +14,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Procedure</t>
   </si>
   <si>
+    <t>Procedure_20230601112832</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
+    <t>Type_20230606080417</t>
+  </si>
+  <si>
     <t>Part</t>
   </si>
   <si>
+    <t>Part_20230601105631</t>
+  </si>
+  <si>
     <t>Accreditation</t>
   </si>
   <si>
     <t>Group</t>
   </si>
   <si>
+    <t>Group_20230601124513</t>
+  </si>
+  <si>
     <t>User</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
+    <t>Contact_20230601104932</t>
+  </si>
+  <si>
     <t>Shipment</t>
   </si>
   <si>
+    <t>Shipment_20230606075500</t>
+  </si>
+  <si>
     <t>Quote</t>
   </si>
   <si>
@@ -49,6 +67,9 @@
     <t>Asset</t>
   </si>
   <si>
+    <t>Asset_20230601132802</t>
+  </si>
+  <si>
     <t>Work Order</t>
   </si>
   <si>
@@ -58,27 +79,51 @@
     <t>Facility Customer1</t>
   </si>
   <si>
+    <t>Facility_Cust1_20230601110619</t>
+  </si>
+  <si>
     <t>Facility Customer2</t>
   </si>
   <si>
+    <t>Facility_Cust2_20230601111923</t>
+  </si>
+  <si>
     <t>Facility Customer3</t>
   </si>
   <si>
+    <t>Facility_Cust3_20230601111927</t>
+  </si>
+  <si>
     <t>Facility Manufacturer</t>
   </si>
   <si>
+    <t>Facility_Manufacturer_20230601111929</t>
+  </si>
+  <si>
     <t>Facility Subcontractor</t>
   </si>
   <si>
+    <t>Facility_Subcontractor_20230601111932</t>
+  </si>
+  <si>
     <t>Facility Lab1</t>
   </si>
   <si>
+    <t>Facility_Lab1_20230601111936</t>
+  </si>
+  <si>
     <t>Facility Lab2</t>
   </si>
   <si>
+    <t>Facility_Lab2_20230601111938</t>
+  </si>
+  <si>
     <t>Facility Lab3</t>
   </si>
   <si>
+    <t>Facility_Lab3_20230601111941</t>
+  </si>
+  <si>
     <t>Job Number</t>
   </si>
   <si>
@@ -94,115 +139,7 @@
     <t>Billing</t>
   </si>
   <si>
-    <t>Accreditation_20230601103941</t>
-  </si>
-  <si>
-    <t>Type_20230601104216</t>
-  </si>
-  <si>
-    <t>Procedure_20230601104716</t>
-  </si>
-  <si>
-    <t>Contact_20230601104932</t>
-  </si>
-  <si>
-    <t>Part_20230601105631</t>
-  </si>
-  <si>
-    <t>Shipment_20230601105910</t>
-  </si>
-  <si>
-    <t>Shipment_20230601110006</t>
-  </si>
-  <si>
-    <t>Facility_Cust1_20230601110619</t>
-  </si>
-  <si>
-    <t>Asset_20230601110822</t>
-  </si>
-  <si>
-    <t>Asset_20230601110920</t>
-  </si>
-  <si>
-    <t>Facility_Cust2_20230601111923</t>
-  </si>
-  <si>
-    <t>Facility_Cust3_20230601111927</t>
-  </si>
-  <si>
-    <t>Facility_Manufacturer_20230601111929</t>
-  </si>
-  <si>
-    <t>Facility_Subcontractor_20230601111932</t>
-  </si>
-  <si>
-    <t>Facility_Lab1_20230601111936</t>
-  </si>
-  <si>
-    <t>Facility_Lab2_20230601111938</t>
-  </si>
-  <si>
-    <t>Facility_Lab3_20230601111941</t>
-  </si>
-  <si>
-    <t>Asset_20230601112722</t>
-  </si>
-  <si>
-    <t>Procedure_20230601112832</t>
-  </si>
-  <si>
-    <t>Group_20230601114410</t>
-  </si>
-  <si>
-    <t>Group_20230601124315</t>
-  </si>
-  <si>
-    <t>Group_20230601124513</t>
-  </si>
-  <si>
-    <t>Shipment_20230601124649</t>
-  </si>
-  <si>
-    <t>Shipment_20230601124735</t>
-  </si>
-  <si>
-    <t>Shipment_20230601125742</t>
-  </si>
-  <si>
-    <t>Shipment_20230601125916</t>
-  </si>
-  <si>
-    <t>Asset_20230601130043</t>
-  </si>
-  <si>
-    <t>Asset_20230601130402</t>
-  </si>
-  <si>
-    <t>Asset_20230601131143</t>
-  </si>
-  <si>
-    <t>Asset_20230601131608</t>
-  </si>
-  <si>
-    <t>Asset_20230601131927</t>
-  </si>
-  <si>
-    <t>Asset_20230601132044</t>
-  </si>
-  <si>
-    <t>Asset_20230601132303</t>
-  </si>
-  <si>
-    <t>Asset_20230601132534</t>
-  </si>
-  <si>
-    <t>Asset_20230601132802</t>
-  </si>
-  <si>
-    <t>Shipment_20230606075500</t>
-  </si>
-  <si>
-    <t>Type_20230606080417</t>
+    <t>Accreditation_20230620123144</t>
   </si>
 </sst>
 </file>
@@ -212,8 +149,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,68 +161,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,16 +199,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +246,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -347,12 +263,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -360,7 +291,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -377,19 +314,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,31 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,127 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +505,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,15 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -606,17 +567,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,24 +588,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,15 +608,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,130 +626,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,190 +1077,190 @@
   <dimension ref="A2:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.4285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.8571428571429" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.7142857142857" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="39.4285714285714" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="26.8571428571429" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
